--- a/data/section_list_example.xlsx
+++ b/data/section_list_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangjiani/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangjiani/CourseSelectionSystem/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D498A-69C4-1644-B7F2-64D815AB5261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AAC226-E25C-6548-A3ED-65F003DE67B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="480" windowWidth="28040" windowHeight="16420" xr2:uid="{A2DB1C49-99E9-1748-A5CF-F168FA39BF00}"/>
+    <workbookView xWindow="8180" yWindow="7300" windowWidth="28040" windowHeight="16420" xr2:uid="{A2DB1C49-99E9-1748-A5CF-F168FA39BF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>course_id</t>
   </si>
@@ -39,18 +39,6 @@
     <t>section_id</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>credits</t>
-  </si>
-  <si>
-    <t>dept_name</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>classroom_no</t>
   </si>
   <si>
@@ -60,10 +48,13 @@
     <t>limit</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>instructor_id</t>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>dat</t>
   </si>
 </sst>
 </file>
@@ -415,50 +406,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ED6A3F-9078-4342-889C-D8C333065B99}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
